--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1479743.348006899</v>
+        <v>1576413.324491272</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>304.8828453918553</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>236.0502377560822</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>361.4920100800697</v>
       </c>
       <c r="H5" t="n">
-        <v>149.1149290617444</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>48.27083703815647</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>120.0784350110269</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>45.00360371288644</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.0299153491827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>28.17672961320551</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>15.46192424803357</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873209</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971812</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.8620934869476</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>150.2062474346966</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>31.95340287568468</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>75.70736849520101</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>95.85441263759756</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>139.1894753224697</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>142.3844270995955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,10 +2772,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>21.37163840672689</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>249.6801140405067</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.259425062653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3207,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>203.1977700471487</v>
       </c>
       <c r="X34" t="n">
-        <v>176.7697821123584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.57906258117903</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>166.4682395475553</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3562,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>51.06561173382029</v>
       </c>
       <c r="S40" t="n">
-        <v>119.1056687634347</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3797,7 +3799,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>90.23928315486526</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4031,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4189,19 +4191,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>118.9368739814707</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>19.58945082857525</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2088.375092014473</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1507.115530902032</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1121.327278303787</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>710.3413735141798</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>292.3775654123667</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.375092014473</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240415</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005402</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8990031022959</v>
+        <v>830.0723311352949</v>
       </c>
       <c r="F5" t="n">
-        <v>371.9535023530925</v>
+        <v>419.0864263456874</v>
       </c>
       <c r="G5" t="n">
-        <v>358.0300982916834</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4601,16 +4603,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5125998356232</v>
+        <v>386.0450565669175</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>386.0450565669175</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>649.953643809393</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>649.953643809393</v>
+        <v>606.8376357104477</v>
       </c>
       <c r="X7" t="n">
-        <v>649.953643809393</v>
+        <v>606.8376357104477</v>
       </c>
       <c r="Y7" t="n">
-        <v>429.1610646658629</v>
+        <v>386.0450565669175</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>972.7956167052919</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>587.0073641070476</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>580.0618633578441</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.505845071313</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.243304314563</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>699.6676411627923</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>530.7314582348854</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>530.7314582348854</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>382.8183646524923</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
         <v>235.9284171545819</v>
@@ -4960,7 +4962,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>683.0939597590123</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>683.0939597590123</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>683.0939597590123</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5033,34 +5035,34 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807097</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,7 +5132,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5151,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.8867116300491</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5200,16 +5202,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258585</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783413</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413808</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433634</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.8867116300491</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>750.1800661608899</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814245</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644073</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.00145687072</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5370,13 +5372,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5387,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,7 +5396,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5437,49 +5439,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258585</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384228</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.957642384228</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="X16" t="n">
-        <v>1163.957642384228</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y16" t="n">
-        <v>1163.957642384228</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>728.5338801960603</v>
+        <v>741.6930623898342</v>
       </c>
       <c r="C19" t="n">
-        <v>559.5976972681534</v>
+        <v>572.7568794619273</v>
       </c>
       <c r="D19" t="n">
-        <v>409.4810578558177</v>
+        <v>422.6402400495915</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>274.7271464671984</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>127.837198969288</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1879.871376715612</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1688.185492542438</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1466.418877111964</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1177.316010237608</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V19" t="n">
-        <v>1177.316010237608</v>
+        <v>1479.892362468342</v>
       </c>
       <c r="W19" t="n">
-        <v>1177.316010237608</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X19" t="n">
-        <v>949.3264593395904</v>
+        <v>962.4856415333643</v>
       </c>
       <c r="Y19" t="n">
-        <v>728.5338801960603</v>
+        <v>741.6930623898342</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5862,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>754.9793597803102</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>586.0431768524033</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>435.9265374400676</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>435.9265374400676</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>435.9265374400676</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1674.827124689058</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1385.409954652097</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1157.42040375408</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>936.62782461055</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.662598458018</v>
+        <v>806.069814334827</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>637.1336314069201</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G25" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="V25" t="n">
-        <v>1956.343466104704</v>
+        <v>1725.917579243575</v>
       </c>
       <c r="W25" t="n">
-        <v>1666.926296067743</v>
+        <v>1436.500409206614</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.103642431788</v>
+        <v>1208.510858308597</v>
       </c>
       <c r="Y25" t="n">
-        <v>1302.311063288258</v>
+        <v>987.7182791650667</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6217,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6294,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,13 +6305,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3333.647790285309</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>3164.711607357402</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004075</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>4274.768765573601</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>3985.665898699244</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>3985.665898699244</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>3964.078385157096</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>3736.088834259079</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3515.296255115549</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,16 +6469,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6494,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6531,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,13 +6542,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V31" t="n">
-        <v>1956.343466104704</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W31" t="n">
-        <v>1666.926296067743</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X31" t="n">
-        <v>1438.936745169726</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6779,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6859,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,31 +6873,31 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V34" t="n">
-        <v>1701.658977898817</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="W34" t="n">
-        <v>1701.658977898817</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X34" t="n">
         <v>1523.103642431788</v>
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,64 +6925,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
@@ -7008,10 +7010,10 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7020,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7047,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7117,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1591.413930162615</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1302.311063288258</v>
+        <v>1566.427113757507</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.311063288258</v>
+        <v>1311.74262555162</v>
       </c>
       <c r="W37" t="n">
-        <v>1302.311063288258</v>
+        <v>1022.32545551466</v>
       </c>
       <c r="X37" t="n">
-        <v>1302.311063288258</v>
+        <v>794.3359046166422</v>
       </c>
       <c r="Y37" t="n">
-        <v>1302.311063288258</v>
+        <v>573.5433254731121</v>
       </c>
     </row>
     <row r="38">
@@ -7169,43 +7171,43 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
@@ -7227,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>242.4509819463048</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C40" t="n">
-        <v>242.4509819463048</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D40" t="n">
-        <v>242.4509819463048</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1904.762040110946</v>
       </c>
       <c r="S40" t="n">
-        <v>1746.20425253553</v>
+        <v>1904.762040110946</v>
       </c>
       <c r="T40" t="n">
-        <v>1524.437637105056</v>
+        <v>1904.762040110946</v>
       </c>
       <c r="U40" t="n">
-        <v>1235.3347702307</v>
+        <v>1904.762040110946</v>
       </c>
       <c r="V40" t="n">
-        <v>980.6502820248129</v>
+        <v>1650.077551905059</v>
       </c>
       <c r="W40" t="n">
-        <v>691.2331119878522</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="X40" t="n">
-        <v>463.2435610898349</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y40" t="n">
-        <v>242.4509819463048</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="41">
@@ -7406,34 +7408,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.2844224724406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>728.2844224724406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>578.1677830601049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>430.2546894777117</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>430.2546894777117</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1420.142636483171</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1130.72546644621</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.72546644621</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.9328873026803</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7627,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7652,40 +7654,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216427</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M44" t="n">
-        <v>2949.638265046256</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>3496.417082105038</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7758,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.8310435707792</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8948606428723</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D46" t="n">
-        <v>241.7782212305366</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E46" t="n">
-        <v>241.7782212305366</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7828,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1332.922252711644</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V46" t="n">
-        <v>1078.237764505757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W46" t="n">
-        <v>788.8205944687966</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="X46" t="n">
-        <v>560.8310435707792</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y46" t="n">
-        <v>560.8310435707792</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400235</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>133.2530576400235</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,25 +11302,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>77.35795430876999</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.59472895491359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.9698866949897</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>75.50340795434053</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>134.0724053833436</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>13.22478417484632</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>70.17139562143066</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24421,13 +24423,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>112.9481680013583</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>83.3252282894417</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>265.1513599298641</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>2.457529283321264</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25132,13 +25134,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944232</v>
       </c>
       <c r="X34" t="n">
-        <v>48.93987327667872</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>136.9698866949902</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>119.7435986580576</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.86654093622704</v>
       </c>
       <c r="S40" t="n">
-        <v>70.66335656800715</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>75.78652510416296</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>167.2749642241422</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>206.1202045604619</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26316,31 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="F2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="G2" t="n">
         <v>496352.233608729</v>
-      </c>
-      <c r="G2" t="n">
-        <v>496352.2336087289</v>
       </c>
       <c r="H2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="I2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="J2" t="n">
+        <v>496352.2336087288</v>
+      </c>
+      <c r="K2" t="n">
         <v>496352.233608729</v>
-      </c>
-      <c r="J2" t="n">
-        <v>496352.233608729</v>
-      </c>
-      <c r="K2" t="n">
-        <v>496352.2336087289</v>
       </c>
       <c r="L2" t="n">
         <v>496352.233608729</v>
@@ -26350,10 +26352,10 @@
         <v>496352.233608729</v>
       </c>
       <c r="O2" t="n">
+        <v>496352.233608729</v>
+      </c>
+      <c r="P2" t="n">
         <v>496352.2336087289</v>
-      </c>
-      <c r="P2" t="n">
-        <v>496352.2336087288</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="M4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26491,25 +26493,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360740.3570405086</v>
+        <v>-360740.3570405087</v>
       </c>
       <c r="C6" t="n">
-        <v>229227.5221740364</v>
+        <v>229227.5221740356</v>
       </c>
       <c r="D6" t="n">
-        <v>229227.5221740362</v>
+        <v>229227.5221740361</v>
       </c>
       <c r="E6" t="n">
         <v>-352499.4223133854</v>
@@ -26540,10 +26542,10 @@
         <v>374877.9916800214</v>
       </c>
       <c r="I6" t="n">
-        <v>374877.9916800215</v>
+        <v>374877.9916800214</v>
       </c>
       <c r="J6" t="n">
-        <v>198454.7724874286</v>
+        <v>198454.7724874284</v>
       </c>
       <c r="K6" t="n">
         <v>374877.9916800215</v>
@@ -26555,13 +26557,13 @@
         <v>245235.6768410768</v>
       </c>
       <c r="N6" t="n">
-        <v>374877.9916800216</v>
+        <v>374877.9916800215</v>
       </c>
       <c r="O6" t="n">
         <v>374877.9916800215</v>
       </c>
       <c r="P6" t="n">
-        <v>374877.9916800214</v>
+        <v>374877.9916800215</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>60.39004637915224</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>87.87253500827492</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79469286292885</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>49.80904827649545</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>52.2921599407253</v>
       </c>
       <c r="H5" t="n">
-        <v>174.8078437026127</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>203.8668062856715</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>166.4445633255641</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>368.7805663079085</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>264.2080233068709</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>151.6552505687318</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>209.5731812100507</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29560,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,7 +35266,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282428</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>470.4443441954242</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>836.7500320793075</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>585.4109551969891</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570691.712523387</v>
+        <v>1574097.203647835</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>270.6226856612333</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>57.88979017035228</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>174.7741884835045</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>54.32902562741683</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.03250833502987</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>228.102817220094</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>83.85112090809152</v>
+        <v>128.9001284632685</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>152.6509495310452</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.5103304121437</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.82764119510642</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>81.728982268686</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>11.42490606886637</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>18.26879610204029</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>111.9811935083357</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>80.50796942908595</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744762</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>79.54367350501148</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>17.25588147840188</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>42.32069823344303</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>136.9973915638138</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>139.4881144206581</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,7 +3483,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>14.77083091122472</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549245</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589034</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.4425172951326</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>96.31572829406679</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>537.3268261969895</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>126.3409214073819</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>112.4175173459728</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>112.4175173459728</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.800419524901</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2587.242597884658</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1504.400259589023</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785273</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>411.2797076961342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>264.3897601982238</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>95.38995993655624</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>95.38995993655624</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>95.38995993655624</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5099885583422</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C8" t="n">
-        <v>159.5099885583422</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D8" t="n">
-        <v>159.5099885583422</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E8" t="n">
-        <v>159.5099885583422</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F8" t="n">
-        <v>152.5644878091387</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G8" t="n">
-        <v>138.6410837477296</v>
+        <v>511.3398517472591</v>
       </c>
       <c r="H8" t="n">
-        <v>138.6410837477296</v>
+        <v>184.1451317832619</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4822,7 +4822,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4849,7 +4849,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,40 +4886,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482878</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E10" t="n">
-        <v>229.6312428658947</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F10" t="n">
-        <v>82.74129536798435</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G10" t="n">
-        <v>82.74129536798435</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>82.74129536798435</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>82.74129536798435</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5029,13 +5029,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5111,22 +5111,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5235,16 +5235,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5266,31 +5266,31 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5481,7 +5481,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>410.1538185715858</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
         <v>1482.778354750621</v>
@@ -5527,19 +5527,19 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807097</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750057</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>492.7083461157131</v>
+        <v>719.7238607267858</v>
       </c>
       <c r="C19" t="n">
-        <v>492.7083461157131</v>
+        <v>719.7238607267858</v>
       </c>
       <c r="D19" t="n">
-        <v>492.7083461157131</v>
+        <v>569.60722131445</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>421.6941277320569</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>274.8041802341465</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>107.1013436088655</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>107.1013436088655</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5679,13 +5679,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5703,22 +5703,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230348</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024461</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X19" t="n">
-        <v>895.1493900894829</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.3568109459528</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,52 +5737,52 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972665</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807097</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750057</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5794,10 +5794,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390112</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.904311342305</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="C22" t="n">
-        <v>260.904311342305</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D22" t="n">
-        <v>260.904311342305</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5916,13 +5916,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931531</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.7880996267</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208131</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838525</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858352</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.904311342305</v>
+        <v>560.2704579839216</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
         <v>1482.778354750621</v>
@@ -6001,16 +6001,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807097</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750057</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6083,7 +6083,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902953</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6153,13 +6153,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6241,13 +6241,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6308,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1875.996321150147</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1654.229705719673</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1365.126838845316</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1110.442350639429</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>821.0251806024687</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>593.0356297044514</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6475,7 +6475,7 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6490,25 +6490,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.9043113423046</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9912177599115</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6663,10 +6663,10 @@
         <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6706,13 +6706,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6779,13 +6779,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,7 +6797,7 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>720.69789701373</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C34" t="n">
-        <v>551.7617140858231</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D34" t="n">
-        <v>401.6450746734873</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E34" t="n">
-        <v>401.6450746734873</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>1123.1389409875</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>902.3463618439697</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6937,34 +6937,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
         <v>4461.783306331037</v>
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,13 +7016,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>481.6968904858343</v>
+        <v>510.7061876676659</v>
       </c>
       <c r="C37" t="n">
-        <v>481.6968904858343</v>
+        <v>510.7061876676659</v>
       </c>
       <c r="D37" t="n">
-        <v>481.6968904858343</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E37" t="n">
-        <v>333.7837969034412</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F37" t="n">
-        <v>192.8867116300491</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G37" t="n">
         <v>192.8867116300491</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208122</v>
+        <v>1430.553952576414</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838516</v>
+        <v>1141.136782539453</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858343</v>
+        <v>913.1472316414357</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.6968904858343</v>
+        <v>692.3546524979056</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,67 +7159,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2649.230460361822</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,7 +7283,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7292,7 +7292,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7335,49 +7335,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="41">
@@ -7390,67 +7390,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1682.725100522034</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193958</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420605</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.97392775006</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104708</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104708</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931534</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.89096650106</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208167</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838562</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858388</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786342</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1650.184003770974</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M44" t="n">
-        <v>2593.249184644076</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870723</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.97392775006</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107238</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839444</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839444</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839444</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839444</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839444</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786342</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>381.817657018402</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400226</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>315.1679217109319</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400226</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400226</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>315.1679217109337</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>295.4822118494002</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>413.669975960786</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>11.64153443578789</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>147.7570121569884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>64.70498037788317</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>84.92751434097173</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>128.1651665445289</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>106.603459843759</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>65.92599321748322</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696571</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>110.2253518264304</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>128.1651665445294</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>183.3889571555941</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>8.423656459117467</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>5.932933602273096</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>237.3668124126033</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.14213605696219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>122.268925058028</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917731.830241026</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917731.830241026</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917731.830241026</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.830241026</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651775</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="E2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="F2" t="n">
         <v>496352.2336087289</v>
@@ -26331,31 +26331,31 @@
         <v>496352.2336087289</v>
       </c>
       <c r="H2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="I2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="J2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="K2" t="n">
         <v>496352.2336087288</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="M2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.233608729</v>
       </c>
       <c r="N2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.233608729</v>
       </c>
       <c r="O2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="P2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087288</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499382</v>
@@ -26450,16 +26450,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499381</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-360740.3570405088</v>
       </c>
       <c r="C6" t="n">
-        <v>229227.5221740359</v>
+        <v>229227.5221740363</v>
       </c>
       <c r="D6" t="n">
-        <v>229227.5221740365</v>
+        <v>229227.5221740355</v>
       </c>
       <c r="E6" t="n">
-        <v>-353171.3772156432</v>
+        <v>-352566.6178036112</v>
       </c>
       <c r="F6" t="n">
-        <v>374206.0367777635</v>
+        <v>374810.7961897956</v>
       </c>
       <c r="G6" t="n">
-        <v>374206.0367777633</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="H6" t="n">
-        <v>374206.0367777636</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="I6" t="n">
-        <v>374206.0367777635</v>
+        <v>374810.7961897956</v>
       </c>
       <c r="J6" t="n">
-        <v>197782.8175851706</v>
+        <v>198387.5769972025</v>
       </c>
       <c r="K6" t="n">
-        <v>374206.0367777633</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="L6" t="n">
-        <v>374206.0367777634</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="M6" t="n">
-        <v>244563.7219388188</v>
+        <v>245168.481350851</v>
       </c>
       <c r="N6" t="n">
-        <v>374206.0367777633</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="O6" t="n">
-        <v>374206.0367777635</v>
+        <v>374810.7961897957</v>
       </c>
       <c r="P6" t="n">
-        <v>374206.0367777636</v>
+        <v>374810.7961897955</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26752,13 +26752,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26974,28 +26974,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>111.3076844110284</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.04152607450897</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>190.498703287503</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>120.0866871815547</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>4.167450853507134</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>58.42018111649699</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>68.08019533676973</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>16.6896287763933</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30662,7 +30662,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.619001477597825e-12</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>837.4077714107342</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
@@ -35661,7 +35661,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282419</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248957</v>
+        <v>867.4697571238434</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282419</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597661</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282419</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36618,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36843,10 +36843,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M38" t="n">
-        <v>854.0890375411602</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>751.0723262417322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597766</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789825</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>952.5910917910126</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>519.694535324007</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597766</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
